--- a/expobazaar/Test_data/Test_data.xlsx
+++ b/expobazaar/Test_data/Test_data.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit.kashyap\eclipse-workspace\expobazaar\Test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD3D5D-9086-41CA-B18D-89D0AACE785E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{867D013A-0E5F-4B4C-9603-7A804982C842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{861E9007-179A-411A-95A5-EBA08FB71D6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="3225" xr2:uid="{861E9007-179A-411A-95A5-EBA08FB71D6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>raj2008cs@gmail.com</t>
-  </si>
-  <si>
     <t>First name</t>
   </si>
   <si>
@@ -53,16 +46,27 @@
   </si>
   <si>
     <t>Rohit</t>
+  </si>
+  <si>
+    <t>rohit.kashyap@expobazaar.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,14 +89,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,7 +415,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,44 +429,45 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>1234566789</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Testing@123" xr:uid="{13CBDD7E-66FB-4F5A-8AC3-8E54E0BC8894}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{AFB82C4A-E412-49B6-A18C-FC1D6038B1EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/expobazaar/Test_data/Test_data.xlsx
+++ b/expobazaar/Test_data/Test_data.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{867D013A-0E5F-4B4C-9603-7A804982C842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1BB116B7-837F-4C19-A69C-586651DB390B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="3225" xr2:uid="{861E9007-179A-411A-95A5-EBA08FB71D6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="2115" activeTab="1" xr2:uid="{861E9007-179A-411A-95A5-EBA08FB71D6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:J4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -414,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BEC13E-55F1-43D3-A348-08B0E8B57C94}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03575717-09D9-4A59-95AF-A7A22721DCF3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/expobazaar/Test_data/Test_data.xlsx
+++ b/expobazaar/Test_data/Test_data.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1BB116B7-837F-4C19-A69C-586651DB390B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F223D5D6-AC07-4B66-BE2C-00EB9224013E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="2115" activeTab="1" xr2:uid="{861E9007-179A-411A-95A5-EBA08FB71D6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="2115" activeTab="1" xr2:uid="{861E9007-179A-411A-95A5-EBA08FB71D6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J4"/>
+  <oleSize ref="A1:F4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>First name</t>
   </si>
@@ -48,20 +48,138 @@
     <t>Rohit</t>
   </si>
   <si>
+    <t>regiester business name</t>
+  </si>
+  <si>
+    <t>business type</t>
+  </si>
+  <si>
+    <t>business tax id</t>
+  </si>
+  <si>
+    <t>organization type</t>
+  </si>
+  <si>
+    <t>Delivery Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state </t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zip code</t>
+  </si>
+  <si>
+    <t>billing state</t>
+  </si>
+  <si>
+    <t>billing city</t>
+  </si>
+  <si>
+    <t>billing zip code</t>
+  </si>
+  <si>
+    <t>expobazaar</t>
+  </si>
+  <si>
+    <t>Partnersip</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>1225 Shearwood Forest Drive</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>4467 Emeral Dreams Drive</t>
+  </si>
+  <si>
+    <t>Freeport</t>
+  </si>
+  <si>
+    <t>billing address</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country </t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>billing country</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Rohit kashyap</t>
+  </si>
+  <si>
     <t>rohit.kashyap@expobazaar.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>rohitandgullo@123456</t>
+  </si>
+  <si>
+    <t>new Password</t>
+  </si>
+  <si>
+    <t>rohit@07198891</t>
+  </si>
+  <si>
+    <t>about us</t>
+  </si>
+  <si>
+    <t>I am a person who is positive about every aspect of life. There are many things I like to do, to see, and to experience. I like to read, I like to write; I like to think, I like to dream; I like to talk, I like to listen. I like to see the sunrise in the morning, I like to see the moonlight at night; I like to feel the music flowing on my face, I like to smell the wind coming from the ocean.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -71,13 +189,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,12 +221,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -412,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BEC13E-55F1-43D3-A348-08B0E8B57C94}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,26 +564,85 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -457,14 +655,59 @@
       <c r="D2" s="1">
         <v>1234566789</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3">
+        <v>13103</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="3">
+        <v>61032</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Testing@123" xr:uid="{13CBDD7E-66FB-4F5A-8AC3-8E54E0BC8894}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{AFB82C4A-E412-49B6-A18C-FC1D6038B1EF}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{7F287FAE-EBA2-4E0E-BE5A-22CEC466B371}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -473,12 +716,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03575717-09D9-4A59-95AF-A7A22721DCF3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>8343433454</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3DB831F8-5D43-4B58-8550-0F78D555B818}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{2D99CA99-68ED-4D24-8F5E-E186266B3FCC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/expobazaar/Test_data/Test_data.xlsx
+++ b/expobazaar/Test_data/Test_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F223D5D6-AC07-4B66-BE2C-00EB9224013E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{929CA6A9-5A55-4229-88A1-6FDB5C488822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="2115" activeTab="1" xr2:uid="{861E9007-179A-411A-95A5-EBA08FB71D6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="2115" xr2:uid="{861E9007-179A-411A-95A5-EBA08FB71D6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BEC13E-55F1-43D3-A348-08B0E8B57C94}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -718,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03575717-09D9-4A59-95AF-A7A22721DCF3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
